--- a/database/seeds/user_sports.xlsx
+++ b/database/seeds/user_sports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884BD3B4-53A0-584D-9AC7-B26286665BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F32326-88BC-B54C-A93F-B11CF58EE223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
   </bookViews>
@@ -399,9 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A19F7-2308-D741-91F4-25365B430BF3}">
-  <dimension ref="A1:C729"/>
+  <dimension ref="A1:C730"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="C730" sqref="C730"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6345,7 +6347,7 @@
         <v>308</v>
       </c>
       <c r="C540" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -8425,6 +8427,17 @@
       </c>
       <c r="C729" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+      <c r="B730" s="1">
+        <v>67</v>
+      </c>
+      <c r="C730" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/user_sports.xlsx
+++ b/database/seeds/user_sports.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F32326-88BC-B54C-A93F-B11CF58EE223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425F1C2-BF89-114D-B33A-5B29C0A933FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
   </bookViews>
   <sheets>
     <sheet name="user_sports" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A19F7-2308-D741-91F4-25365B430BF3}">
-  <dimension ref="A1:C730"/>
+  <dimension ref="A1:C734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="C730" sqref="C730"/>
+      <selection activeCell="C735" sqref="C735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8440,6 +8440,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+      <c r="B731" s="1">
+        <v>354</v>
+      </c>
+      <c r="C731" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+      <c r="B732" s="1">
+        <v>352</v>
+      </c>
+      <c r="C732" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+      <c r="B733" s="1">
+        <v>213</v>
+      </c>
+      <c r="C733" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+      <c r="B734" s="1">
+        <v>213</v>
+      </c>
+      <c r="C734" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeds/user_sports.xlsx
+++ b/database/seeds/user_sports.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425F1C2-BF89-114D-B33A-5B29C0A933FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA3B87-2F22-834D-8B42-7D80C406659F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
   </bookViews>
   <sheets>
     <sheet name="user_sports" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">user_sports!$B$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A19F7-2308-D741-91F4-25365B430BF3}">
-  <dimension ref="A1:C734"/>
+  <dimension ref="A1:C740"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="C735" sqref="C735"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -715,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -726,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,10 +748,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,10 +759,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,10 +781,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,10 +803,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -822,10 +825,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,10 +847,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,10 +858,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,10 +880,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,10 +902,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,7 +949,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,10 +957,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,10 +968,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -987,10 +990,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="C56" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1042,10 +1045,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C58" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1056,7 +1059,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,10 +1078,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,7 +1092,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1097,10 +1100,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,7 +1114,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1122,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1133,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1144,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1155,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,7 +1169,7 @@
         <v>40</v>
       </c>
       <c r="C69" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,7 +1180,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,10 +1188,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +1202,7 @@
         <v>41</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,7 +1213,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,7 +1224,7 @@
         <v>41</v>
       </c>
       <c r="C74" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,7 +1235,7 @@
         <v>41</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="C76" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1251,10 +1254,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1273,10 +1276,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1287,7 +1290,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,7 +1301,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1312,7 @@
         <v>43</v>
       </c>
       <c r="C82" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1320,7 +1323,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,10 +1331,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1339,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1350,10 +1353,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1361,10 +1364,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C87" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1372,10 +1375,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1383,7 +1386,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="1">
         <v>30</v>
@@ -1394,10 +1397,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C90" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,7 +1408,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="1">
         <v>30</v>
@@ -1419,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="C92" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,7 +1430,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C93" s="1">
         <v>30</v>
@@ -1438,10 +1441,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C94" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,10 +1452,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1460,10 +1463,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C96" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1471,10 +1474,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,7 +1485,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="1">
         <v>17</v>
@@ -1493,10 +1496,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1504,10 +1507,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C100" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,10 +1518,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C101" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,7 +1532,7 @@
         <v>58</v>
       </c>
       <c r="C102" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,10 +1540,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,10 +1551,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C104" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,7 +1565,7 @@
         <v>59</v>
       </c>
       <c r="C105" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="C106" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="C107" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1592,10 +1595,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,10 +1606,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C109" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1614,10 +1617,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C110" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,10 +1628,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1636,10 +1639,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C112" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1647,10 +1650,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C113" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1658,7 +1661,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C114" s="1">
         <v>13</v>
@@ -1672,7 +1675,7 @@
         <v>64</v>
       </c>
       <c r="C115" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,10 +1683,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C116" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1691,10 +1694,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C117" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1705,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="C118" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1713,10 +1716,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,10 +1727,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C120" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1735,10 +1738,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C121" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1746,10 +1749,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C122" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,10 +1760,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C123" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,10 +1771,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C124" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1779,10 +1782,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C125" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,10 +1793,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C126" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1801,10 +1804,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,10 +1815,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C128" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,10 +1826,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C129" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1837,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C130" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +1848,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C131" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,10 +1859,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C132" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1867,10 +1870,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C133" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1878,10 +1881,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C134" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,10 +1892,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C135" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1900,10 +1903,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C136" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1911,10 +1914,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C137" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1922,10 +1925,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1933,10 +1936,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C139" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1944,10 +1947,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C140" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1955,10 +1958,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C141" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,10 +1969,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,10 +1980,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C143" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,10 +1991,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -1999,10 +2002,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,10 +2013,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C146" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,7 +2024,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C147" s="1">
         <v>8</v>
@@ -2032,10 +2035,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,10 +2046,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,10 +2057,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C150" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,10 +2068,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C151" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,10 +2079,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C152" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,10 +2090,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C153" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2101,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C154" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,10 +2112,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C155" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,7 +2123,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C156" s="1">
         <v>29</v>
@@ -2131,10 +2134,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C157" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,10 +2145,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C158" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2153,10 +2156,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C159" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2164,10 +2167,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C160" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2175,10 +2178,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C161" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,10 +2189,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C162" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2197,10 +2200,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C163" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,10 +2211,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C164" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,10 +2222,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C165" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,10 +2233,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C166" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,10 +2244,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C167" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2252,10 +2255,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C168" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,10 +2266,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C169" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2274,10 +2277,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C170" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,10 +2288,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C171" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,10 +2299,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C172" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,10 +2310,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C173" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,10 +2321,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C174" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,10 +2332,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C175" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,10 +2343,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C176" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,10 +2354,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C177" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,10 +2365,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C178" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,10 +2376,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C179" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,10 +2387,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C180" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,10 +2398,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C181" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,10 +2409,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C182" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2417,10 +2420,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C183" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,10 +2431,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C184" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,10 +2442,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C185" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2453,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C186" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,10 +2464,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C187" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,10 +2475,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C188" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,10 +2486,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C189" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,10 +2497,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C190" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,10 +2508,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C191" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2519,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C192" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,10 +2530,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C193" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2541,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C194" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,7 +2552,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C195" s="1">
         <v>28</v>
@@ -2560,7 +2563,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C196" s="1">
         <v>15</v>
@@ -2571,10 +2574,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C197" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,10 +2585,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C198" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2593,10 +2596,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C199" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,7 +2610,7 @@
         <v>119</v>
       </c>
       <c r="C200" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2615,10 +2618,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C201" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,10 +2629,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C202" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,10 +2640,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C203" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,10 +2651,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C204" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,10 +2662,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C205" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2670,10 +2673,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C206" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,10 +2684,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C207" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -2692,10 +2695,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C208" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -2703,10 +2706,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C209" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,10 +2717,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C210" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,10 +2728,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C211" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2736,10 +2739,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C212" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,10 +2750,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C213" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -2758,10 +2761,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C214" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -2769,10 +2772,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C215" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,10 +2783,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C216" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2791,10 +2794,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C217" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2802,10 +2805,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C218" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2813,10 +2816,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C219" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,10 +2827,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C220" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,7 +2838,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C221" s="1">
         <v>28</v>
@@ -2846,7 +2849,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C222" s="1">
         <v>10</v>
@@ -2857,10 +2860,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C223" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -2868,10 +2871,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C224" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2879,10 +2882,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C225" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -2890,10 +2893,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C226" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -2901,10 +2904,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C227" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,10 +2915,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C228" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +2926,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C229" s="1">
         <v>12</v>
@@ -2934,10 +2937,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C230" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,10 +2948,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C231" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -2956,10 +2959,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C232" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,10 +2970,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C233" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,10 +2981,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C234" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,10 +2992,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C235" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3000,10 +3003,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C236" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,10 +3014,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C237" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,10 +3025,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C238" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3036,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C239" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,10 +3047,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C240" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,10 +3058,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C241" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,10 +3069,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C242" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,10 +3080,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C243" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,10 +3091,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C244" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,10 +3102,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C245" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,10 +3113,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C246" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,10 +3124,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C247" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,7 +3135,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C248" s="1">
         <v>21</v>
@@ -3143,10 +3146,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C249" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3154,10 +3157,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C250" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3165,10 +3168,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C251" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,10 +3179,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C252" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,10 +3190,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C253" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,10 +3201,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C254" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,10 +3212,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C255" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,10 +3223,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C256" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -3231,10 +3234,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C257" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,10 +3245,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C258" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,10 +3256,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C259" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -3264,10 +3267,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C260" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -3275,10 +3278,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C261" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -3286,10 +3289,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C262" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -3297,10 +3300,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C263" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -3308,10 +3311,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C264" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,10 +3322,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C265" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -3333,7 +3336,7 @@
         <v>152</v>
       </c>
       <c r="C266" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -3344,7 +3347,7 @@
         <v>152</v>
       </c>
       <c r="C267" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,7 +3358,7 @@
         <v>152</v>
       </c>
       <c r="C268" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,10 +3366,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C269" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,10 +3377,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C270" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -3385,10 +3388,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C271" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -3396,10 +3399,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C272" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,10 +3410,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C273" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -3418,10 +3421,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -3429,10 +3432,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,10 +3443,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C276" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -3454,7 +3457,7 @@
         <v>154</v>
       </c>
       <c r="C277" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,7 +3468,7 @@
         <v>154</v>
       </c>
       <c r="C278" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -3473,10 +3476,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C279" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,10 +3487,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C280" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -3495,10 +3498,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C281" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -3506,10 +3509,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C282" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -3517,10 +3520,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C283" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -3528,10 +3531,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C284" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,7 +3545,7 @@
         <v>157</v>
       </c>
       <c r="C285" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -3553,7 +3556,7 @@
         <v>157</v>
       </c>
       <c r="C286" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,7 +3567,7 @@
         <v>157</v>
       </c>
       <c r="C287" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3575,7 +3578,7 @@
         <v>157</v>
       </c>
       <c r="C288" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,10 +3586,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C289" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,10 +3597,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C290" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3608,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C291" s="1">
         <v>8</v>
@@ -3616,10 +3619,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C292" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,10 +3630,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C293" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3641,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C294" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3652,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C295" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3663,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C296" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3674,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C297" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,7 +3685,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C298" s="1">
         <v>16</v>
@@ -3693,10 +3696,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C299" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3707,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C300" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3718,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C301" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3729,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C302" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,10 +3740,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C303" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3751,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C304" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3762,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C305" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,7 +3773,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C306" s="1">
         <v>25</v>
@@ -3781,10 +3784,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C307" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3795,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C308" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3806,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C309" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3817,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C310" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,10 +3828,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C311" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +3839,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C312" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +3850,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +3861,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C314" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +3872,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C315" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +3883,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C316" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -3891,10 +3894,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C317" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +3905,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C318" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,10 +3916,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C319" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -3924,10 +3927,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C320" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3935,10 +3938,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C321" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -3946,10 +3949,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C322" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,10 +3960,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C323" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -3968,10 +3971,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C324" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -3979,10 +3982,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C325" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -3990,10 +3993,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C326" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4001,10 +4004,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C327" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4012,10 +4015,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C328" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4023,10 +4026,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C329" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,10 +4037,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C330" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4045,10 +4048,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C331" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,7 +4059,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C332" s="1">
         <v>13</v>
@@ -4067,10 +4070,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C333" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,10 +4081,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C334" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,7 +4092,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C335" s="1">
         <v>21</v>
@@ -4100,10 +4103,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C336" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4111,10 +4114,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C337" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4122,10 +4125,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C338" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4133,10 +4136,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C339" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -4144,7 +4147,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C340" s="1">
         <v>4</v>
@@ -4155,7 +4158,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C341" s="1">
         <v>10</v>
@@ -4166,10 +4169,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C342" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,10 +4180,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C343" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -4188,10 +4191,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C344" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,10 +4202,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C345" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -4210,10 +4213,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C346" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,10 +4224,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C347" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,10 +4235,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C348" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -4243,10 +4246,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C349" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -4254,10 +4257,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C350" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -4265,10 +4268,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C351" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,10 +4279,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C352" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -4287,10 +4290,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C353" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,10 +4301,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C354" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -4309,10 +4312,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C355" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -4320,10 +4323,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C356" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,7 +4334,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C357" s="1">
         <v>17</v>
@@ -4342,10 +4345,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C358" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -4353,7 +4356,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C359" s="1">
         <v>17</v>
@@ -4364,10 +4367,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C360" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -4375,10 +4378,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C361" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -4386,10 +4389,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C362" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,10 +4400,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C363" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -4408,10 +4411,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C364" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,10 +4422,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C365" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +4433,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C366" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,10 +4444,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C367" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,10 +4455,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C368" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,10 +4466,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C369" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,10 +4477,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C370" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,10 +4488,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C371" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,10 +4499,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C372" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -4507,7 +4510,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C373" s="1">
         <v>10</v>
@@ -4518,10 +4521,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C374" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -4529,10 +4532,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C375" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -4540,7 +4543,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C376" s="1">
         <v>14</v>
@@ -4551,10 +4554,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C377" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,10 +4565,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C378" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,10 +4576,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C379" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,10 +4587,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C380" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -4595,10 +4598,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C381" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,10 +4609,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C382" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,10 +4620,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C383" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,10 +4631,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C384" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,10 +4642,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C385" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -4650,10 +4653,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C386" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -4661,10 +4664,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C387" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -4672,10 +4675,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C388" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,10 +4686,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C389" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,10 +4697,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C390" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -4705,10 +4708,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C391" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -4716,10 +4719,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C392" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,10 +4730,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C393" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -4738,10 +4741,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C394" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,10 +4752,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C395" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,10 +4763,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C396" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -4771,10 +4774,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C397" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -4782,10 +4785,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C398" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,10 +4796,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C399" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,10 +4807,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C400" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -4815,10 +4818,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C401" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -4826,10 +4829,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C402" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -4837,10 +4840,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C403" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -4848,10 +4851,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C404" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -4859,10 +4862,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C405" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,10 +4873,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C406" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,10 +4884,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C407" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -4892,10 +4895,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C408" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,10 +4906,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C409" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4917,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C410" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,10 +4928,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C411" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -4936,10 +4939,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C412" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,10 +4950,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C413" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4961,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C414" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +4972,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C415" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,10 +4983,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C416" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -4991,10 +4994,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C417" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -5002,10 +5005,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C418" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,10 +5016,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C419" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,7 +5027,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C420" s="1">
         <v>15</v>
@@ -5035,10 +5038,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C421" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,10 +5049,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C422" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -5057,10 +5060,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C423" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -5068,10 +5071,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C424" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,10 +5082,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C425" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,10 +5093,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C426" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -5101,10 +5104,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C427" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,10 +5115,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C428" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,10 +5126,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C429" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,10 +5137,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C430" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,10 +5148,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C431" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +5159,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C432" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,10 +5170,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C433" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -5178,10 +5181,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C434" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -5189,10 +5192,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C435" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,10 +5203,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C436" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,7 +5214,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C437" s="1">
         <v>8</v>
@@ -5222,10 +5225,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C438" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,10 +5236,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C439" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,10 +5247,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C440" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -5255,10 +5258,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C441" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -5266,10 +5269,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C442" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -5277,7 +5280,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C443" s="1">
         <v>3</v>
@@ -5288,10 +5291,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C444" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,10 +5302,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C445" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -5310,10 +5313,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C446" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5324,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C447" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,10 +5335,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C448" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -5343,7 +5346,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C449" s="1">
         <v>23</v>
@@ -5354,10 +5357,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C450" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -5365,10 +5368,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C451" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -5376,10 +5379,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C452" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -5387,10 +5390,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C453" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -5398,10 +5401,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C454" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -5409,10 +5412,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C455" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,10 +5423,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C456" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -5431,10 +5434,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C457" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -5442,10 +5445,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C458" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -5453,10 +5456,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C459" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,10 +5467,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C460" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -5475,10 +5478,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C461" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -5486,10 +5489,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C462" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -5497,10 +5500,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C463" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -5508,10 +5511,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C464" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -5519,10 +5522,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C465" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -5530,10 +5533,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C466" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -5541,10 +5544,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C467" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,10 +5555,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C468" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5566,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C469" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -5574,10 +5577,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C470" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,10 +5588,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C471" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -5596,10 +5599,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C472" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -5607,10 +5610,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C473" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -5618,10 +5621,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C474" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -5629,10 +5632,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C475" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,10 +5643,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C476" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -5651,10 +5654,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C477" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -5662,10 +5665,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C478" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,10 +5676,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C479" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,10 +5687,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C480" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -5695,10 +5698,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C481" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -5706,10 +5709,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C482" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,10 +5720,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C483" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,10 +5731,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C484" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,10 +5742,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C485" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -5750,10 +5753,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C486" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -5761,10 +5764,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C487" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,10 +5775,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C488" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -5783,10 +5786,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C489" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -5794,10 +5797,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C490" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -5805,10 +5808,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C491" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -5816,10 +5819,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C492" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -5827,10 +5830,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C493" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -5838,10 +5841,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C494" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -5849,10 +5852,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C495" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -5860,10 +5863,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C496" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -5871,10 +5874,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C497" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -5882,10 +5885,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C498" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -5893,10 +5896,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C499" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,10 +5907,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C500" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -5915,10 +5918,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C501" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -5926,10 +5929,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C502" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -5937,10 +5940,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C503" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -5948,10 +5951,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C504" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -5959,10 +5962,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C505" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -5970,10 +5973,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C506" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -5981,10 +5984,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C507" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,10 +5995,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C508" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -6003,10 +6006,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C509" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -6014,10 +6017,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C510" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -6025,10 +6028,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C511" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -6036,10 +6039,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C512" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -6047,10 +6050,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C513" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -6058,10 +6061,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C514" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -6069,10 +6072,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="1">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C515" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -6080,10 +6083,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C516" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -6091,10 +6094,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C517" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -6102,10 +6105,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C518" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,10 +6116,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C519" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -6124,10 +6127,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C520" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -6135,10 +6138,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C521" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -6146,10 +6149,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="1">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C522" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -6157,10 +6160,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C523" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -6168,10 +6171,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C524" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -6179,10 +6182,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C525" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -6190,10 +6193,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C526" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -6201,10 +6204,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C527" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -6212,10 +6215,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C528" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -6223,10 +6226,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C529" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -6234,10 +6237,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C530" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -6245,10 +6248,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C531" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -6256,10 +6259,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C532" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -6267,10 +6270,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C533" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -6278,10 +6281,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C534" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -6289,10 +6292,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C535" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -6300,10 +6303,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C536" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -6311,10 +6314,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C537" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -6322,10 +6325,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C538" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -6333,10 +6336,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C539" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -6344,10 +6347,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C540" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -6355,10 +6358,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C541" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -6366,10 +6369,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C542" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -6377,10 +6380,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C543" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -6388,7 +6391,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C544" s="1">
         <v>16</v>
@@ -6399,10 +6402,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C545" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -6410,10 +6413,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C546" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -6421,10 +6424,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C547" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -6432,10 +6435,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C548" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -6443,10 +6446,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C549" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -6454,10 +6457,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="1">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C550" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,10 +6468,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C551" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -6476,10 +6479,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C552" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -6487,10 +6490,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C553" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -6498,10 +6501,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C554" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -6509,10 +6512,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C555" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -6520,10 +6523,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C556" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -6531,10 +6534,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C557" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -6542,10 +6545,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C558" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -6553,10 +6556,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C559" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -6564,7 +6567,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C560" s="1">
         <v>3</v>
@@ -6575,10 +6578,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C561" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -6586,10 +6589,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C562" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -6597,10 +6600,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C563" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -6608,10 +6611,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C564" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -6619,10 +6622,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C565" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -6630,10 +6633,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C566" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -6641,10 +6644,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C567" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -6652,10 +6655,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C568" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -6663,10 +6666,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C569" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -6674,10 +6677,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C570" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -6685,10 +6688,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C571" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -6696,10 +6699,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C572" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -6707,10 +6710,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C573" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -6718,10 +6721,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C574" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -6729,10 +6732,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C575" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -6740,10 +6743,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C576" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -6751,10 +6754,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C577" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -6762,10 +6765,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C578" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -6773,10 +6776,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C579" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -6784,10 +6787,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C580" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -6795,10 +6798,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C581" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -6806,10 +6809,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C582" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -6817,10 +6820,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C583" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -6828,10 +6831,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C584" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -6839,10 +6842,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C585" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -6850,10 +6853,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C586" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -6861,10 +6864,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C587" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -6872,10 +6875,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C588" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -6883,10 +6886,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C589" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -6894,10 +6897,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C590" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -6905,10 +6908,10 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C591" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -6916,10 +6919,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C592" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -6927,7 +6930,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C593" s="1">
         <v>25</v>
@@ -6938,10 +6941,10 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C594" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -6949,10 +6952,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C595" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -6960,10 +6963,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C596" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -6971,10 +6974,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C597" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -6982,10 +6985,10 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C598" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -6993,10 +6996,10 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C599" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -7004,10 +7007,10 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C600" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -7015,10 +7018,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C601" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -7026,10 +7029,10 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C602" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -7037,10 +7040,10 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C603" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -7048,10 +7051,10 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C604" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -7059,10 +7062,10 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C605" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -7070,10 +7073,10 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C606" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -7081,10 +7084,10 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C607" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -7092,10 +7095,10 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C608" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -7103,10 +7106,10 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C609" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -7114,10 +7117,10 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C610" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -7125,10 +7128,10 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C611" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -7136,10 +7139,10 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C612" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -7147,10 +7150,10 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C613" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -7158,10 +7161,10 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C614" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -7169,10 +7172,10 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C615" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -7180,10 +7183,10 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C616" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -7191,10 +7194,10 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C617" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -7202,10 +7205,10 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C618" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -7213,7 +7216,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C619" s="1">
         <v>14</v>
@@ -7224,10 +7227,10 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C620" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -7235,10 +7238,10 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C621" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -7246,10 +7249,10 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C622" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -7257,10 +7260,10 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C623" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -7268,10 +7271,10 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C624" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -7279,10 +7282,10 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C625" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -7290,10 +7293,10 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C626" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -7301,10 +7304,10 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C627" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -7312,10 +7315,10 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C628" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -7323,10 +7326,10 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C629" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -7334,10 +7337,10 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C630" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -7345,10 +7348,10 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C631" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -7356,7 +7359,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C632" s="1">
         <v>6</v>
@@ -7367,10 +7370,10 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C633" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -7378,10 +7381,10 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C634" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -7389,10 +7392,10 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C635" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -7400,10 +7403,10 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C636" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -7411,10 +7414,10 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C637" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -7422,10 +7425,10 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C638" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -7433,10 +7436,10 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C639" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -7444,10 +7447,10 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C640" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -7455,10 +7458,10 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C641" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -7466,10 +7469,10 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C642" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -7477,10 +7480,10 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C643" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -7488,10 +7491,10 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C644" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -7499,10 +7502,10 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C645" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -7510,10 +7513,10 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C646" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -7521,10 +7524,10 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C647" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -7532,10 +7535,10 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C648" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -7543,10 +7546,10 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C649" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -7554,10 +7557,10 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C650" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -7565,10 +7568,10 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C651" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -7576,10 +7579,10 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C652" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -7587,10 +7590,10 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C653" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -7598,10 +7601,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C654" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -7609,10 +7612,10 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C655" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -7620,10 +7623,10 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C656" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
@@ -7631,10 +7634,10 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C657" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -7642,10 +7645,10 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C658" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -7653,10 +7656,10 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C659" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -7664,10 +7667,10 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C660" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -7675,10 +7678,10 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C661" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -7686,10 +7689,10 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C662" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -7697,10 +7700,10 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C663" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -7708,10 +7711,10 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C664" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
@@ -7719,10 +7722,10 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C665" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -7730,10 +7733,10 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C666" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
@@ -7741,10 +7744,10 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C667" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -7752,10 +7755,10 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C668" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -7763,10 +7766,10 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C669" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -7774,7 +7777,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C670" s="1">
         <v>6</v>
@@ -7785,10 +7788,10 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C671" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
@@ -7796,7 +7799,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C672" s="1">
         <v>22</v>
@@ -7807,10 +7810,10 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C673" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
@@ -7818,10 +7821,10 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C674" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
@@ -7829,10 +7832,10 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C675" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -7840,10 +7843,10 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C676" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -7851,10 +7854,10 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C677" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -7862,10 +7865,10 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C678" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
@@ -7873,10 +7876,10 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C679" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
@@ -7884,10 +7887,10 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C680" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
@@ -7895,10 +7898,10 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C681" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -7906,10 +7909,10 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C682" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -7917,10 +7920,10 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C683" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -7928,10 +7931,10 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C684" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -7939,10 +7942,10 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C685" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -7950,10 +7953,10 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C686" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -7961,10 +7964,10 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C687" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -7972,10 +7975,10 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C688" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -7983,10 +7986,10 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C689" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -7994,10 +7997,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C690" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -8005,10 +8008,10 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C691" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -8016,10 +8019,10 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C692" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -8027,10 +8030,10 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C693" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -8038,10 +8041,10 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C694" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
@@ -8049,10 +8052,10 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C695" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -8060,10 +8063,10 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C696" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -8071,10 +8074,10 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C697" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -8082,10 +8085,10 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C698" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
@@ -8093,7 +8096,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C699" s="1">
         <v>3</v>
@@ -8104,7 +8107,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C700" s="1">
         <v>29</v>
@@ -8115,10 +8118,10 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C701" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -8126,10 +8129,10 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C702" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -8137,10 +8140,10 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C703" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -8148,10 +8151,10 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C704" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -8159,10 +8162,10 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C705" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
@@ -8170,10 +8173,10 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C706" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -8181,10 +8184,10 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C707" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -8192,7 +8195,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C708" s="1">
         <v>21</v>
@@ -8203,7 +8206,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C709" s="1">
         <v>7</v>
@@ -8214,10 +8217,10 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C710" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -8225,10 +8228,10 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C711" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -8236,10 +8239,10 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C712" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -8247,10 +8250,10 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C713" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -8258,10 +8261,10 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C714" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -8269,10 +8272,10 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C715" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -8280,10 +8283,10 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C716" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -8291,10 +8294,10 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C717" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -8302,10 +8305,10 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C718" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -8313,10 +8316,10 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C719" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -8324,10 +8327,10 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C720" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -8335,10 +8338,10 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C721" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -8346,10 +8349,10 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C722" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -8357,10 +8360,10 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C723" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -8368,10 +8371,10 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C724" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -8379,10 +8382,10 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C725" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -8390,10 +8393,10 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C726" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -8401,10 +8404,10 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C727" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -8412,7 +8415,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C728" s="1">
         <v>15</v>
@@ -8423,10 +8426,10 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C729" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -8434,10 +8437,10 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="C730" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -8445,10 +8448,10 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C731" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -8456,10 +8459,10 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="C732" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -8467,10 +8470,10 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>213</v>
+        <v>398</v>
       </c>
       <c r="C733" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -8478,10 +8481,76 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>213</v>
+        <v>399</v>
       </c>
       <c r="C734" s="1">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+      <c r="B735" s="1">
+        <v>399</v>
+      </c>
+      <c r="C735" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+      <c r="B736" s="1">
+        <v>400</v>
+      </c>
+      <c r="C736" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+      <c r="B737" s="1">
+        <v>401</v>
+      </c>
+      <c r="C737" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+      <c r="B738" s="1">
+        <v>402</v>
+      </c>
+      <c r="C738" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+      <c r="B739" s="1">
+        <v>404</v>
+      </c>
+      <c r="C739" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+      <c r="B740" s="1">
+        <v>404</v>
+      </c>
+      <c r="C740" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/user_sports.xlsx
+++ b/database/seeds/user_sports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA3B87-2F22-834D-8B42-7D80C406659F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC64422-EFBD-F14E-8225-8F957D47B603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
   </bookViews>
   <sheets>
     <sheet name="user_sports" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A19F7-2308-D741-91F4-25365B430BF3}">
-  <dimension ref="A1:C740"/>
+  <dimension ref="A1:C742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,10 +748,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -759,10 +759,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,10 +781,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,10 +803,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,10 +825,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,10 +847,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,10 +858,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +880,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,10 +902,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -957,10 +957,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,10 +968,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,10 +990,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="C56" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,10 +1100,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1133,10 +1133,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>40</v>
       </c>
       <c r="C69" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1188,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>41</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>41</v>
       </c>
       <c r="C74" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>41</v>
       </c>
       <c r="C75" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="C76" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C77" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1276,10 +1276,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>43</v>
       </c>
       <c r="C82" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1331,10 +1331,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C85" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1353,10 +1353,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1364,10 +1364,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C87" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1">
         <v>30</v>
@@ -1397,10 +1397,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="1">
         <v>30</v>
@@ -1422,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="C92" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C93" s="1">
         <v>30</v>
@@ -1441,10 +1441,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C94" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C95" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C96" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C97" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="1">
         <v>17</v>
@@ -1496,10 +1496,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C100" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>58</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1540,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1551,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>59</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="C106" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="C107" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C108" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1606,10 +1606,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,10 +1617,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,10 +1628,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C111" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C112" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C113" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C114" s="1">
         <v>13</v>
@@ -1675,7 +1675,7 @@
         <v>64</v>
       </c>
       <c r="C115" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C116" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C117" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,10 +1716,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C119" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,10 +1727,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C120" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C121" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,10 +1749,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C122" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,10 +1760,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C123" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,10 +1771,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C124" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,10 +1782,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C125" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,10 +1793,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,10 +1804,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C127" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,10 +1815,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C128" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,10 +1826,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C129" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C130" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,10 +1848,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C131" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,10 +1859,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C132" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C133" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C134" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,10 +1892,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C135" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C136" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C137" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,10 +1925,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C138" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1936,10 +1936,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C139" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,10 +1947,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C140" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,10 +1958,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C141" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,10 +1969,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C142" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,10 +1980,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C143" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,10 +1991,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C144" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,10 +2002,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C145" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C146" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C147" s="1">
         <v>8</v>
@@ -2035,10 +2035,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C148" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,10 +2046,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C149" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,10 +2057,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C150" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,10 +2068,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C151" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,10 +2079,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C152" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,10 +2090,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C153" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2101,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C154" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,10 +2112,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C155" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C156" s="1">
         <v>29</v>
@@ -2134,10 +2134,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C157" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,10 +2145,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C158" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2156,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C159" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2167,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C160" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2178,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C161" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2189,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C162" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,10 +2200,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C163" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,10 +2211,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C164" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C165" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,10 +2233,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C166" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,10 +2244,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C167" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,10 +2255,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C168" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,10 +2266,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C169" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,10 +2277,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C170" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,10 +2288,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C171" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,10 +2299,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C172" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,10 +2310,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C173" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C174" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2332,10 +2332,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C175" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,10 +2343,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C176" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,10 +2354,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C177" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,10 +2365,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C178" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,10 +2376,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C179" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,10 +2387,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C180" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C181" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,10 +2409,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C182" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,10 +2420,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C183" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,10 +2431,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C184" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,10 +2442,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C185" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,10 +2453,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C186" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2464,10 +2464,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C187" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,10 +2475,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C188" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C189" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C190" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C191" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +2519,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C192" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,10 +2530,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C193" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C194" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,7 +2552,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C195" s="1">
         <v>28</v>
@@ -2563,7 +2563,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C196" s="1">
         <v>15</v>
@@ -2574,10 +2574,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C197" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,10 +2585,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C198" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,10 +2596,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C199" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>119</v>
       </c>
       <c r="C200" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C201" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,10 +2629,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C202" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,10 +2640,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C203" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,10 +2651,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C204" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,10 +2662,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C205" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,10 +2673,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C206" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,10 +2684,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C207" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,10 +2695,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C208" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C209" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C210" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2728,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C211" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,10 +2739,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C212" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C213" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,10 +2761,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C214" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,10 +2772,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C215" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2783,10 +2783,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C216" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C217" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2805,10 +2805,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C218" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +2816,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C219" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,10 +2827,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C220" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C221" s="1">
         <v>28</v>
@@ -2849,7 +2849,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C222" s="1">
         <v>10</v>
@@ -2860,10 +2860,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C223" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,10 +2871,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C224" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,10 +2882,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C225" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,7 +2893,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C226" s="1">
         <v>10</v>
@@ -2904,10 +2904,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C227" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,10 +2915,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C228" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +2926,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C229" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,10 +2937,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C230" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,10 +2948,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C231" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C232" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,10 +2970,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C233" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -2981,10 +2981,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C234" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +2992,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C235" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,10 +3003,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C236" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,7 +3014,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C237" s="1">
         <v>2</v>
@@ -3025,10 +3025,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C238" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,10 +3036,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C239" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3047,7 +3047,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C240" s="1">
         <v>30</v>
@@ -3058,10 +3058,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C241" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3069,10 +3069,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C242" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,10 +3080,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C243" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,10 +3091,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C244" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,10 +3102,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C245" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,10 +3113,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C246" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C247" s="1">
         <v>21</v>
@@ -3135,10 +3135,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C248" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,10 +3146,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C249" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,10 +3157,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C250" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,10 +3168,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C251" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,7 +3179,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C252" s="1">
         <v>21</v>
@@ -3190,7 +3190,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C253" s="1">
         <v>13</v>
@@ -3201,10 +3201,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C254" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,10 +3212,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C255" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,10 +3223,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C256" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,10 +3234,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C257" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,10 +3245,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C258" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -3256,10 +3256,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C259" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -3267,10 +3267,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C260" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,10 +3278,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C261" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -3289,10 +3289,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C262" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -3300,10 +3300,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C263" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -3311,10 +3311,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C264" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -3322,10 +3322,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C265" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -3336,7 +3336,7 @@
         <v>152</v>
       </c>
       <c r="C266" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -3347,7 +3347,7 @@
         <v>152</v>
       </c>
       <c r="C267" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,10 +3355,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C268" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,10 +3366,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C269" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -3377,10 +3377,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C270" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -3388,10 +3388,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C271" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -3399,10 +3399,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C272" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -3410,10 +3410,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C273" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -3421,10 +3421,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C274" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -3432,7 +3432,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C275" s="1">
         <v>21</v>
@@ -3443,10 +3443,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C276" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -3457,7 +3457,7 @@
         <v>154</v>
       </c>
       <c r="C277" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,10 +3465,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C278" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -3476,10 +3476,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C279" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -3487,10 +3487,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C280" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -3498,10 +3498,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C281" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -3509,10 +3509,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C282" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -3520,10 +3520,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C283" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -3531,10 +3531,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C284" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -3545,7 +3545,7 @@
         <v>157</v>
       </c>
       <c r="C285" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>157</v>
       </c>
       <c r="C286" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>157</v>
       </c>
       <c r="C287" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3575,10 +3575,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C288" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -3586,10 +3586,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C289" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -3597,10 +3597,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C290" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -3608,10 +3608,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C291" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -3619,10 +3619,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C292" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -3630,10 +3630,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C293" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -3641,10 +3641,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C294" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -3652,10 +3652,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C295" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C296" s="1">
         <v>5</v>
@@ -3674,10 +3674,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C297" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -3685,10 +3685,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C298" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -3696,10 +3696,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C299" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -3707,10 +3707,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C300" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -3718,10 +3718,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C301" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -3729,10 +3729,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C302" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,10 +3740,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C303" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -3751,10 +3751,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C304" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -3762,10 +3762,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C305" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -3773,10 +3773,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C306" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -3784,10 +3784,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C307" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3795,10 +3795,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C308" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,10 +3806,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C309" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -3817,10 +3817,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C310" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,10 +3828,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C311" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -3839,10 +3839,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C312" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -3850,10 +3850,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C313" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -3861,10 +3861,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C314" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -3872,10 +3872,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C315" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -3883,10 +3883,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C316" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
@@ -3905,10 +3905,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C318" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -3916,10 +3916,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C319" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -3927,10 +3927,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C320" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,10 +3938,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C321" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -3949,10 +3949,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C322" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -3960,10 +3960,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C323" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C324" s="1">
         <v>20</v>
@@ -3982,10 +3982,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C325" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -3993,10 +3993,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C326" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4004,10 +4004,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C327" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C328" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4026,10 +4026,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C329" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4037,10 +4037,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C330" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4048,10 +4048,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C331" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4059,10 +4059,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C332" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C333" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4081,10 +4081,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C334" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4092,10 +4092,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C335" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -4103,10 +4103,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C336" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C337" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4125,10 +4125,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C338" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,10 +4136,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C339" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C340" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -4158,10 +4158,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C341" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -4169,10 +4169,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C342" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,10 +4180,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C343" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,10 +4191,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C344" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4202,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C345" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,10 +4213,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C346" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C347" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -4235,10 +4235,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C348" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -4246,10 +4246,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C349" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,10 +4257,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C350" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -4268,10 +4268,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C351" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C352" s="1">
         <v>17</v>
@@ -4290,7 +4290,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C353" s="1">
         <v>26</v>
@@ -4301,10 +4301,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C354" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,10 +4312,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C355" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -4323,10 +4323,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C356" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,10 +4334,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C357" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -4345,10 +4345,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C358" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -4356,10 +4356,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C359" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,10 +4367,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C360" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -4378,10 +4378,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C361" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +4389,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C362" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,10 +4400,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C363" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -4411,10 +4411,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C364" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -4422,10 +4422,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C365" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -4433,10 +4433,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C366" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,10 +4444,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C367" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,10 +4455,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C368" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,10 +4466,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C369" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -4477,10 +4477,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C370" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -4488,7 +4488,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C371" s="1">
         <v>14</v>
@@ -4499,10 +4499,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C372" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -4510,10 +4510,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C373" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -4521,10 +4521,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C374" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -4532,10 +4532,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C375" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,10 +4543,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C376" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,10 +4554,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C377" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -4565,10 +4565,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C378" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -4576,10 +4576,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C379" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -4587,10 +4587,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C380" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -4598,10 +4598,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C381" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,10 +4609,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C382" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C383" s="1">
         <v>14</v>
@@ -4631,10 +4631,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C384" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -4642,10 +4642,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C385" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C386" s="1">
         <v>14</v>
@@ -4664,10 +4664,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C387" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -4675,10 +4675,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C388" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -4686,10 +4686,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C389" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -4697,10 +4697,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C390" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -4708,10 +4708,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C391" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -4719,10 +4719,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C392" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -4730,10 +4730,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C393" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -4741,10 +4741,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C394" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -4752,10 +4752,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C395" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -4763,10 +4763,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C396" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -4774,10 +4774,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C397" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -4785,10 +4785,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C398" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -4796,7 +4796,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C399" s="1">
         <v>19</v>
@@ -4807,10 +4807,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C400" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -4818,7 +4818,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C401" s="1">
         <v>4</v>
@@ -4829,10 +4829,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C402" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -4840,10 +4840,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C403" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -4851,10 +4851,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C404" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -4862,10 +4862,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C405" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -4873,10 +4873,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C406" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -4884,10 +4884,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C407" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C408" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -4906,10 +4906,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C409" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -4917,10 +4917,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C410" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -4928,10 +4928,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C411" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -4939,10 +4939,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C412" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -4950,10 +4950,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C413" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -4961,10 +4961,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C414" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -4972,10 +4972,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C415" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -4983,10 +4983,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C416" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -4994,10 +4994,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C417" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -5005,10 +5005,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C418" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -5016,10 +5016,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C419" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -5027,10 +5027,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C420" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -5038,10 +5038,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C421" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C422" s="1">
         <v>8</v>
@@ -5060,10 +5060,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C423" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -5071,10 +5071,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C424" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -5082,10 +5082,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C425" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -5093,10 +5093,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C426" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -5104,10 +5104,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C427" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -5115,10 +5115,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C428" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -5126,10 +5126,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C429" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -5137,10 +5137,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C430" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,10 +5148,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C431" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -5159,10 +5159,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C432" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -5170,10 +5170,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C433" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -5181,7 +5181,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C434" s="1">
         <v>3</v>
@@ -5192,10 +5192,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C435" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -5203,10 +5203,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C436" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -5214,10 +5214,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C437" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -5225,10 +5225,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C438" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -5236,10 +5236,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C439" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -5247,10 +5247,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C440" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C441" s="1">
         <v>3</v>
@@ -5269,10 +5269,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C442" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -5280,10 +5280,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C443" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -5291,10 +5291,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C444" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -5302,10 +5302,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C445" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C446" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -5324,10 +5324,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C447" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -5335,10 +5335,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C448" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -5346,10 +5346,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C449" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -5357,10 +5357,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C450" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -5368,10 +5368,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C451" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -5379,10 +5379,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C452" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -5390,10 +5390,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C453" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -5401,10 +5401,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C454" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,10 +5412,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C455" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -5423,10 +5423,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C456" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -5434,10 +5434,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C457" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -5445,10 +5445,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C458" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -5456,10 +5456,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C459" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -5467,10 +5467,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C460" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,10 +5478,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C461" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -5489,10 +5489,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C462" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,10 +5500,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C463" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -5511,10 +5511,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C464" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -5522,10 +5522,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C465" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -5533,10 +5533,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C466" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -5544,10 +5544,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C467" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -5555,10 +5555,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C468" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -5566,10 +5566,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C469" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -5577,10 +5577,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C470" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C471" s="1">
         <v>13</v>
@@ -5599,10 +5599,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C472" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -5610,10 +5610,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C473" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -5621,10 +5621,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C474" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -5632,10 +5632,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C475" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -5643,10 +5643,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C476" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -5654,10 +5654,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C477" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -5665,10 +5665,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C478" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -5676,10 +5676,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C479" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -5687,10 +5687,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C480" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -5698,10 +5698,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C481" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -5709,10 +5709,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C482" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -5720,10 +5720,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C483" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -5731,10 +5731,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C484" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -5742,10 +5742,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C485" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -5753,10 +5753,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C486" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -5764,10 +5764,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C487" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -5775,10 +5775,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C488" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -5786,10 +5786,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C489" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -5797,10 +5797,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C490" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -5808,10 +5808,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C491" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,10 +5819,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C492" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -5830,10 +5830,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C493" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -5841,10 +5841,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C494" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -5852,10 +5852,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C495" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -5863,10 +5863,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C496" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -5874,10 +5874,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C497" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C498" s="1">
         <v>30</v>
@@ -5896,10 +5896,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C499" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -5907,10 +5907,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C500" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -5918,10 +5918,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C501" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -5929,10 +5929,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C502" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -5940,10 +5940,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C503" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -5951,10 +5951,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C504" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -5962,10 +5962,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C505" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -5973,10 +5973,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C506" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -5984,10 +5984,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C507" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -5995,10 +5995,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C508" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -6006,10 +6006,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C509" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C510" s="1">
         <v>7</v>
@@ -6028,10 +6028,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C511" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -6039,10 +6039,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C512" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -6050,10 +6050,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C513" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -6061,10 +6061,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C514" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -6072,10 +6072,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="1">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C515" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -6083,10 +6083,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C516" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -6094,10 +6094,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C517" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -6105,10 +6105,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C518" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -6116,10 +6116,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C519" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -6127,10 +6127,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C520" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -6138,10 +6138,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C521" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -6149,10 +6149,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C522" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -6160,10 +6160,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C523" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -6171,10 +6171,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C524" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -6182,10 +6182,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="1">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C525" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -6193,10 +6193,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C526" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -6204,10 +6204,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C527" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -6215,10 +6215,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C528" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -6226,10 +6226,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C529" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -6237,10 +6237,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="1">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C530" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -6248,10 +6248,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="1">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C531" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -6259,10 +6259,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="1">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C532" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -6270,10 +6270,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C533" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -6281,10 +6281,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C534" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -6292,10 +6292,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C535" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -6303,10 +6303,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C536" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -6314,10 +6314,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C537" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -6325,10 +6325,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C538" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -6336,10 +6336,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C539" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -6347,10 +6347,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C540" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -6358,10 +6358,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C541" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,10 +6369,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C542" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -6380,10 +6380,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C543" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -6391,10 +6391,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C544" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -6402,10 +6402,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C545" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -6413,10 +6413,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C546" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,10 +6424,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C547" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -6435,10 +6435,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C548" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -6446,10 +6446,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C549" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -6457,10 +6457,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C550" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -6468,10 +6468,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C551" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -6479,10 +6479,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C552" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -6490,10 +6490,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C553" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -6501,10 +6501,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C554" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -6512,10 +6512,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C555" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -6523,10 +6523,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C556" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -6534,10 +6534,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C557" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -6545,10 +6545,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C558" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -6556,10 +6556,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C559" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -6567,10 +6567,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C560" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C561" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -6589,10 +6589,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C562" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -6600,10 +6600,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C563" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,10 +6611,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C564" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -6622,10 +6622,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C565" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,10 +6633,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C566" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -6644,10 +6644,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C567" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -6655,10 +6655,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C568" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -6666,10 +6666,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C569" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -6677,10 +6677,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C570" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,10 +6688,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C571" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -6699,7 +6699,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C572" s="1">
         <v>29</v>
@@ -6710,7 +6710,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C573" s="1">
         <v>20</v>
@@ -6721,10 +6721,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C574" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C575" s="1">
         <v>29</v>
@@ -6743,10 +6743,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C576" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -6754,10 +6754,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C577" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -6765,10 +6765,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C578" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C579" s="1">
         <v>25</v>
@@ -6787,10 +6787,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C580" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -6798,10 +6798,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C581" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -6809,10 +6809,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C582" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -6820,10 +6820,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C583" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -6831,10 +6831,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C584" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -6842,10 +6842,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C585" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -6853,10 +6853,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C586" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -6864,7 +6864,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C587" s="1">
         <v>27</v>
@@ -6875,10 +6875,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C588" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -6886,10 +6886,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C589" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,10 +6897,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C590" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -6908,7 +6908,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C591" s="1">
         <v>25</v>
@@ -6919,10 +6919,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C592" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -6930,10 +6930,10 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C593" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -6941,10 +6941,10 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C594" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -6952,10 +6952,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C595" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C596" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -6974,10 +6974,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C597" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -6985,10 +6985,10 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C598" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -6996,10 +6996,10 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C599" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -7007,10 +7007,10 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C600" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -7018,10 +7018,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C601" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,10 +7029,10 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C602" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -7040,10 +7040,10 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C603" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -7051,10 +7051,10 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C604" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -7062,10 +7062,10 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C605" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -7073,10 +7073,10 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C606" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -7084,10 +7084,10 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C607" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -7095,10 +7095,10 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C608" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -7106,10 +7106,10 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C609" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -7117,7 +7117,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C610" s="1">
         <v>6</v>
@@ -7128,7 +7128,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C611" s="1">
         <v>22</v>
@@ -7139,10 +7139,10 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C612" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -7150,10 +7150,10 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C613" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C614" s="1">
         <v>6</v>
@@ -7172,10 +7172,10 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C615" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -7183,10 +7183,10 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C616" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -7194,10 +7194,10 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C617" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -7205,10 +7205,10 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C618" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -7216,10 +7216,10 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C619" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -7227,10 +7227,10 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C620" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -7238,7 +7238,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C621" s="1">
         <v>6</v>
@@ -7249,10 +7249,10 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C622" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -7260,10 +7260,10 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C623" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -7271,10 +7271,10 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C624" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -7282,10 +7282,10 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C625" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -7293,7 +7293,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C626" s="1">
         <v>15</v>
@@ -7304,10 +7304,10 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C627" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -7315,10 +7315,10 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C628" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C629" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -7337,10 +7337,10 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C630" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -7348,10 +7348,10 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C631" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -7359,10 +7359,10 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C632" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -7370,10 +7370,10 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C633" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -7381,10 +7381,10 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C634" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -7392,10 +7392,10 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C635" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -7403,10 +7403,10 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C636" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -7414,10 +7414,10 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C637" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -7425,10 +7425,10 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C638" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -7436,10 +7436,10 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C639" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -7447,10 +7447,10 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C640" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C641" s="1">
         <v>17</v>
@@ -7469,7 +7469,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C642" s="1">
         <v>4</v>
@@ -7480,10 +7480,10 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C643" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -7491,10 +7491,10 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C644" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -7502,10 +7502,10 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C645" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -7513,10 +7513,10 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C646" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -7524,10 +7524,10 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C647" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -7535,10 +7535,10 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C648" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -7546,10 +7546,10 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C649" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C650" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -7568,10 +7568,10 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C651" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -7579,10 +7579,10 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C652" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -7590,10 +7590,10 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C653" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -7601,10 +7601,10 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C654" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -7612,10 +7612,10 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C655" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -7623,10 +7623,10 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C656" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
@@ -7634,10 +7634,10 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C657" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -7645,10 +7645,10 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C658" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -7656,10 +7656,10 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C659" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -7667,10 +7667,10 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C660" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -7678,10 +7678,10 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C661" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -7689,10 +7689,10 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C662" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -7700,10 +7700,10 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C663" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -7711,10 +7711,10 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C664" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
@@ -7722,10 +7722,10 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C665" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -7733,10 +7733,10 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C666" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
@@ -7744,10 +7744,10 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C667" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -7755,10 +7755,10 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C668" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -7766,10 +7766,10 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C669" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -7777,10 +7777,10 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C670" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
@@ -7788,10 +7788,10 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C671" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
@@ -7799,10 +7799,10 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C672" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -7810,10 +7810,10 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C673" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
@@ -7821,10 +7821,10 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C674" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
@@ -7832,10 +7832,10 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C675" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -7843,10 +7843,10 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C676" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -7854,10 +7854,10 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C677" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -7865,10 +7865,10 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C678" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
@@ -7876,10 +7876,10 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C679" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
@@ -7887,10 +7887,10 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C680" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
@@ -7898,10 +7898,10 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C681" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -7909,10 +7909,10 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C682" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C683" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -7931,10 +7931,10 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C684" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -7942,10 +7942,10 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C685" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -7953,10 +7953,10 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C686" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -7964,10 +7964,10 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C687" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -7975,10 +7975,10 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C688" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -7986,10 +7986,10 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C689" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -7997,10 +7997,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C690" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -8008,10 +8008,10 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C691" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -8019,10 +8019,10 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C692" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -8030,10 +8030,10 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C693" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -8041,10 +8041,10 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C694" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
@@ -8052,10 +8052,10 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C695" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -8063,10 +8063,10 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C696" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -8074,10 +8074,10 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C697" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -8085,10 +8085,10 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C698" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
@@ -8096,7 +8096,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C699" s="1">
         <v>3</v>
@@ -8107,10 +8107,10 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C700" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
@@ -8118,10 +8118,10 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C701" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -8129,10 +8129,10 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C702" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -8140,10 +8140,10 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C703" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -8151,10 +8151,10 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C704" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -8162,10 +8162,10 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C705" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
@@ -8173,10 +8173,10 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C706" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -8184,10 +8184,10 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C707" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -8195,10 +8195,10 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C708" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -8206,10 +8206,10 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C709" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -8217,10 +8217,10 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C710" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -8228,10 +8228,10 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C711" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -8239,10 +8239,10 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C712" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -8250,10 +8250,10 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C713" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -8261,10 +8261,10 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C714" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -8272,10 +8272,10 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C715" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -8283,10 +8283,10 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C716" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -8294,10 +8294,10 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C717" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -8305,10 +8305,10 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C718" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -8316,10 +8316,10 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C719" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -8327,10 +8327,10 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C720" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -8338,10 +8338,10 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C721" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -8349,10 +8349,10 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C722" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -8360,10 +8360,10 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C723" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -8371,10 +8371,10 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C724" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -8382,7 +8382,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C725" s="1">
         <v>25</v>
@@ -8393,10 +8393,10 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C726" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -8404,10 +8404,10 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C727" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -8415,10 +8415,10 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="C728" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -8426,10 +8426,10 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="C729" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -8437,10 +8437,10 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C730" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -8448,10 +8448,10 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="C731" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -8459,10 +8459,10 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="C732" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -8470,10 +8470,10 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="C733" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -8481,10 +8481,10 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>399</v>
+        <v>258</v>
       </c>
       <c r="C734" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -8492,10 +8492,10 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>399</v>
+        <v>258</v>
       </c>
       <c r="C735" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -8503,10 +8503,10 @@
         <v>735</v>
       </c>
       <c r="B736" s="1">
-        <v>400</v>
+        <v>258</v>
       </c>
       <c r="C736" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -8514,10 +8514,10 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>401</v>
+        <v>70</v>
       </c>
       <c r="C737" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -8525,10 +8525,10 @@
         <v>737</v>
       </c>
       <c r="B738" s="1">
-        <v>402</v>
+        <v>258</v>
       </c>
       <c r="C738" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -8536,10 +8536,10 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="C739" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -8547,10 +8547,32 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="C740" s="1">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+      <c r="B741" s="1">
+        <v>132</v>
+      </c>
+      <c r="C741" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+      <c r="B742" s="1">
+        <v>108</v>
+      </c>
+      <c r="C742" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/user_sports.xlsx
+++ b/database/seeds/user_sports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC64422-EFBD-F14E-8225-8F957D47B603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A0BA9A-C587-9B4E-A177-2BE7BA5324DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{9FC50BC8-1DAF-3A43-8B40-45CEFA48CE84}"/>
   </bookViews>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025A19F7-2308-D741-91F4-25365B430BF3}">
-  <dimension ref="A1:C742"/>
+  <dimension ref="A1:C745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -6545,10 +6545,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C558" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -6556,10 +6556,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C559" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -6570,7 +6570,7 @@
         <v>322</v>
       </c>
       <c r="C560" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C561" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -6589,10 +6589,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C562" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -6603,7 +6603,7 @@
         <v>323</v>
       </c>
       <c r="C563" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,10 +6611,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C564" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -6622,10 +6622,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C565" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,10 +6633,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C566" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>325</v>
       </c>
       <c r="C567" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -6655,10 +6655,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C568" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -6666,10 +6666,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C569" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -6677,10 +6677,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C570" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,10 +6688,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C571" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -6699,10 +6699,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C572" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -6710,10 +6710,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C573" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>329</v>
       </c>
       <c r="C574" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -6732,10 +6732,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C575" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -6743,10 +6743,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C576" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -6754,10 +6754,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C577" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -6765,10 +6765,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C578" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -6776,10 +6776,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C579" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -6787,10 +6787,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C580" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -6798,10 +6798,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C581" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -6809,7 +6809,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C582" s="1">
         <v>25</v>
@@ -6820,10 +6820,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C583" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -6831,10 +6831,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C584" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -6842,10 +6842,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C585" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -6853,10 +6853,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C586" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -6864,10 +6864,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C587" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -6875,10 +6875,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C588" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -6886,10 +6886,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C589" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,10 +6897,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C590" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -6908,10 +6908,10 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C591" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -6919,10 +6919,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C592" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -6930,10 +6930,10 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C593" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -6941,7 +6941,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C594" s="1">
         <v>22</v>
@@ -6952,10 +6952,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C595" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C596" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -6974,10 +6974,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C597" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C598" s="1">
         <v>10</v>
@@ -6996,7 +6996,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C599" s="1">
         <v>6</v>
@@ -7010,7 +7010,7 @@
         <v>345</v>
       </c>
       <c r="C600" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -7018,10 +7018,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C601" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,10 +7029,10 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C602" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -7043,7 +7043,7 @@
         <v>347</v>
       </c>
       <c r="C603" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>347</v>
       </c>
       <c r="C604" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>347</v>
       </c>
       <c r="C605" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -7073,10 +7073,10 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C606" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -7084,10 +7084,10 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C607" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -7098,7 +7098,7 @@
         <v>348</v>
       </c>
       <c r="C608" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -7106,10 +7106,10 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C609" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -7117,10 +7117,10 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C610" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
         <v>349</v>
       </c>
       <c r="C611" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -7142,7 +7142,7 @@
         <v>349</v>
       </c>
       <c r="C612" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -7150,10 +7150,10 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C613" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -7161,10 +7161,10 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C614" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>350</v>
       </c>
       <c r="C615" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -7186,7 +7186,7 @@
         <v>350</v>
       </c>
       <c r="C616" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -7197,7 +7197,7 @@
         <v>350</v>
       </c>
       <c r="C617" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -7208,7 +7208,7 @@
         <v>350</v>
       </c>
       <c r="C618" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -7216,10 +7216,10 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C619" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -7227,10 +7227,10 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C620" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -7238,10 +7238,10 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C621" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>352</v>
       </c>
       <c r="C622" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -7260,10 +7260,10 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C623" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -7271,10 +7271,10 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C624" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -7282,10 +7282,10 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C625" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -7293,10 +7293,10 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C626" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C627" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -7315,10 +7315,10 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C628" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C629" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -7337,10 +7337,10 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C630" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -7348,10 +7348,10 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C631" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -7359,10 +7359,10 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C632" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -7370,10 +7370,10 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C633" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -7381,10 +7381,10 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C634" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -7392,7 +7392,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C635" s="1">
         <v>12</v>
@@ -7403,7 +7403,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C636" s="1">
         <v>28</v>
@@ -7414,10 +7414,10 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C637" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -7425,10 +7425,10 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C638" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>364</v>
       </c>
       <c r="C639" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -7450,7 +7450,7 @@
         <v>364</v>
       </c>
       <c r="C640" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -7458,10 +7458,10 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C641" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -7469,10 +7469,10 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C642" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -7480,10 +7480,10 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C643" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>366</v>
       </c>
       <c r="C644" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>366</v>
       </c>
       <c r="C645" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -7513,10 +7513,10 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C646" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -7524,10 +7524,10 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C647" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -7535,10 +7535,10 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C648" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -7549,7 +7549,7 @@
         <v>368</v>
       </c>
       <c r="C649" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C650" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -7568,7 +7568,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C651" s="1">
         <v>22</v>
@@ -7582,7 +7582,7 @@
         <v>369</v>
       </c>
       <c r="C652" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -7590,10 +7590,10 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C653" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -7601,7 +7601,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C654" s="1">
         <v>14</v>
@@ -7615,7 +7615,7 @@
         <v>370</v>
       </c>
       <c r="C655" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -7626,7 +7626,7 @@
         <v>370</v>
       </c>
       <c r="C656" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
@@ -7634,10 +7634,10 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C657" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -7645,10 +7645,10 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C658" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -7659,7 +7659,7 @@
         <v>372</v>
       </c>
       <c r="C659" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -7667,10 +7667,10 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C660" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -7678,10 +7678,10 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C661" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -7689,7 +7689,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C662" s="1">
         <v>17</v>
@@ -7700,10 +7700,10 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C663" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -7714,7 +7714,7 @@
         <v>375</v>
       </c>
       <c r="C664" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
@@ -7722,10 +7722,10 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C665" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -7733,7 +7733,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C666" s="1">
         <v>28</v>
@@ -7744,10 +7744,10 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C667" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -7755,10 +7755,10 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C668" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -7766,10 +7766,10 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C669" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -7780,7 +7780,7 @@
         <v>378</v>
       </c>
       <c r="C670" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
         <v>378</v>
       </c>
       <c r="C671" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
@@ -7802,7 +7802,7 @@
         <v>378</v>
       </c>
       <c r="C672" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -7810,10 +7810,10 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C673" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
@@ -7821,10 +7821,10 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C674" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
@@ -7832,10 +7832,10 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C675" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -7843,10 +7843,10 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C676" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
         <v>380</v>
       </c>
       <c r="C677" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -7865,10 +7865,10 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C678" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
@@ -7876,10 +7876,10 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C679" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
@@ -7887,7 +7887,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C680" s="1">
         <v>6</v>
@@ -7898,10 +7898,10 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C681" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -7909,10 +7909,10 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C682" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C683" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>383</v>
       </c>
       <c r="C684" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
         <v>383</v>
       </c>
       <c r="C685" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -7953,10 +7953,10 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C686" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -7964,10 +7964,10 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C687" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -7978,7 +7978,7 @@
         <v>384</v>
       </c>
       <c r="C688" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -7986,10 +7986,10 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C689" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -7997,10 +7997,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C690" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -8011,7 +8011,7 @@
         <v>386</v>
       </c>
       <c r="C691" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>386</v>
       </c>
       <c r="C692" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -8033,7 +8033,7 @@
         <v>386</v>
       </c>
       <c r="C693" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -8044,7 +8044,7 @@
         <v>386</v>
       </c>
       <c r="C694" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
@@ -8052,10 +8052,10 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C695" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -8063,10 +8063,10 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C696" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -8074,10 +8074,10 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C697" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -8085,10 +8085,10 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C698" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
@@ -8096,7 +8096,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C699" s="1">
         <v>3</v>
@@ -8107,10 +8107,10 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C700" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
@@ -8118,10 +8118,10 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C701" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -8129,10 +8129,10 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C702" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -8140,7 +8140,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C703" s="1">
         <v>21</v>
@@ -8151,10 +8151,10 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C704" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -8162,7 +8162,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C705" s="1">
         <v>21</v>
@@ -8173,10 +8173,10 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C706" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -8184,10 +8184,10 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C707" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -8195,10 +8195,10 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C708" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -8206,10 +8206,10 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C709" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -8220,7 +8220,7 @@
         <v>394</v>
       </c>
       <c r="C710" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -8228,10 +8228,10 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C711" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -8239,10 +8239,10 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C712" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -8250,10 +8250,10 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C713" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -8261,10 +8261,10 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C714" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -8275,7 +8275,7 @@
         <v>398</v>
       </c>
       <c r="C715" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>398</v>
       </c>
       <c r="C716" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -8297,7 +8297,7 @@
         <v>398</v>
       </c>
       <c r="C717" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
         <v>398</v>
       </c>
       <c r="C718" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -8319,7 +8319,7 @@
         <v>398</v>
       </c>
       <c r="C719" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -8330,7 +8330,7 @@
         <v>398</v>
       </c>
       <c r="C720" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
@@ -8338,10 +8338,10 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C721" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C722" s="1">
         <v>27</v>
@@ -8360,10 +8360,10 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C723" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -8371,10 +8371,10 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C724" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -8382,10 +8382,10 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C725" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -8393,10 +8393,10 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C726" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -8404,10 +8404,10 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C727" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -8415,10 +8415,10 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="C728" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -8426,10 +8426,10 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="C729" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -8437,10 +8437,10 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="C730" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -8448,7 +8448,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>213</v>
+        <v>354</v>
       </c>
       <c r="C731" s="1">
         <v>9</v>
@@ -8459,10 +8459,10 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="C732" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -8470,10 +8470,10 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C733" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -8481,10 +8481,10 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C734" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -8492,10 +8492,10 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="C735" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -8506,7 +8506,7 @@
         <v>258</v>
       </c>
       <c r="C736" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -8514,10 +8514,10 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="C737" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -8528,7 +8528,7 @@
         <v>258</v>
       </c>
       <c r="C738" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -8536,10 +8536,10 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C739" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -8547,10 +8547,10 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="C740" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -8558,10 +8558,10 @@
         <v>740</v>
       </c>
       <c r="B741" s="1">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C741" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
@@ -8569,10 +8569,43 @@
         <v>741</v>
       </c>
       <c r="B742" s="1">
+        <v>132</v>
+      </c>
+      <c r="C742" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+      <c r="B743" s="1">
+        <v>132</v>
+      </c>
+      <c r="C743" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+      <c r="B744" s="1">
         <v>108</v>
       </c>
-      <c r="C742" s="1">
+      <c r="C744" s="1">
         <v>28</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+      <c r="B745" s="1">
+        <v>387</v>
+      </c>
+      <c r="C745" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
